--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_1mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_1mi.xlsx
@@ -594,10 +594,10 @@
         <v>6.35288902024531</v>
       </c>
       <c r="R2" t="n">
-        <v>40.0487722284549</v>
+        <v>35</v>
       </c>
       <c r="S2" t="n">
-        <v>0.55881633905</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -653,10 +653,10 @@
         <v>6.92743033168565</v>
       </c>
       <c r="R3" t="n">
-        <v>53.5633054085323</v>
+        <v>50</v>
       </c>
       <c r="S3" t="n">
-        <v>0.677420520359875</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -710,10 +710,10 @@
         <v>3.49961154043405</v>
       </c>
       <c r="R4" t="n">
-        <v>38.3988393274612</v>
+        <v>40</v>
       </c>
       <c r="S4" t="n">
-        <v>0.580259286776863</v>
+        <v>0.442857142857143</v>
       </c>
     </row>
     <row r="5">
@@ -767,10 +767,10 @@
         <v>12.93324635522</v>
       </c>
       <c r="R5" t="n">
-        <v>35.6968955479137</v>
+        <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.612398370663204</v>
+        <v>0.485714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -824,10 +824,10 @@
         <v>0.595632031767042</v>
       </c>
       <c r="R6" t="n">
-        <v>25.9253212363581</v>
+        <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>0.345349221028167</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -883,10 +883,10 @@
         <v>12.0624622869681</v>
       </c>
       <c r="R7" t="n">
-        <v>30.6576927136365</v>
+        <v>30</v>
       </c>
       <c r="S7" t="n">
-        <v>0.393983274867232</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -942,10 +942,10 @@
         <v>3.03546019336931</v>
       </c>
       <c r="R8" t="n">
-        <v>18.5726437681445</v>
+        <v>20</v>
       </c>
       <c r="S8" t="n">
-        <v>0.23709346295086</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1001,10 +1001,10 @@
         <v>2.76124521801586</v>
       </c>
       <c r="R9" t="n">
-        <v>109.314314527528</v>
+        <v>90</v>
       </c>
       <c r="S9" t="n">
-        <v>0.692666515625971</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -1060,10 +1060,10 @@
         <v>3.76813326109933</v>
       </c>
       <c r="R10" t="n">
-        <v>113.583851851753</v>
+        <v>107.5</v>
       </c>
       <c r="S10" t="n">
-        <v>0.752476122065753</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="11">
@@ -1117,10 +1117,10 @@
         <v>15.5423051839657</v>
       </c>
       <c r="R11" t="n">
-        <v>40.3605441928673</v>
+        <v>40</v>
       </c>
       <c r="S11" t="n">
-        <v>0.564902848349993</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -1174,10 +1174,10 @@
         <v>4.54580233864955</v>
       </c>
       <c r="R12" t="n">
-        <v>35.9317638652717</v>
+        <v>30</v>
       </c>
       <c r="S12" t="n">
-        <v>0.415944373765059</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13">
@@ -1233,10 +1233,10 @@
         <v>10.1720400019476</v>
       </c>
       <c r="R13" t="n">
-        <v>65.3381786610065</v>
+        <v>40</v>
       </c>
       <c r="S13" t="n">
-        <v>0.85070990491521</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -1292,10 +1292,10 @@
         <v>1.0644418872267</v>
       </c>
       <c r="R14" t="n">
-        <v>17.8138934584248</v>
+        <v>20</v>
       </c>
       <c r="S14" t="n">
-        <v>0.213443064401811</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -1349,10 +1349,10 @@
         <v>10.2232142857143</v>
       </c>
       <c r="R15" t="n">
-        <v>32.4540319251191</v>
+        <v>30</v>
       </c>
       <c r="S15" t="n">
-        <v>0.465510184908126</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_1mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_1mi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -104,25 +104,22 @@
     <t xml:space="preserve">Linde-Whiting</t>
   </si>
   <si>
-    <t xml:space="preserve">EAST CHICAGO</t>
+    <t xml:space="preserve">East Chicago</t>
   </si>
   <si>
     <t xml:space="preserve">CFI-PortNeal</t>
   </si>
   <si>
-    <t xml:space="preserve">SERGEANT BLUFF</t>
+    <t xml:space="preserve">Sergeant Bluff</t>
   </si>
   <si>
     <t xml:space="preserve">APC-Geismar</t>
   </si>
   <si>
-    <t xml:space="preserve">GEISMAR</t>
+    <t xml:space="preserve">Geismar</t>
   </si>
   <si>
     <t xml:space="preserve">Honeywell-Geismar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geismar</t>
   </si>
   <si>
     <t xml:space="preserve">AEROPRES-SIBLEY</t>
@@ -552,28 +549,28 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>64.9148345927153</v>
+        <v>67.9073691543403</v>
       </c>
       <c r="F2" t="n">
-        <v>1845</v>
+        <v>4708</v>
       </c>
       <c r="G2" t="n">
-        <v>28.4218547513182</v>
+        <v>69.3297363545277</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1337</v>
+        <v>2075</v>
       </c>
       <c r="K2" t="n">
-        <v>496</v>
+        <v>2446</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -582,22 +579,22 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
+        <v>629</v>
       </c>
       <c r="O2" t="n">
-        <v>74.0375</v>
+        <v>49.31575</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1870843800798</v>
+        <v>4.94444828559179</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.35288902024531</v>
+        <v>11.6754929677719</v>
       </c>
       <c r="R2" t="n">
-        <v>35</v>
+        <v>42.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0.45</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="3">
@@ -725,52 +722,52 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>210.285811111985</v>
+        <v>208.517056969943</v>
       </c>
       <c r="F5" t="n">
-        <v>18744</v>
+        <v>10290</v>
       </c>
       <c r="G5" t="n">
-        <v>89.1358285225348</v>
+        <v>49.3484808846275</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="J5" t="n">
-        <v>10385</v>
+        <v>5967</v>
       </c>
       <c r="K5" t="n">
-        <v>2098</v>
+        <v>974</v>
       </c>
       <c r="L5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M5" t="n">
-        <v>1695</v>
+        <v>722</v>
       </c>
       <c r="N5" t="n">
-        <v>11172</v>
+        <v>6895</v>
       </c>
       <c r="O5" t="n">
-        <v>51.3578571428571</v>
+        <v>49.265875</v>
       </c>
       <c r="P5" t="n">
-        <v>9.03073412632923</v>
+        <v>10.3019585434324</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.93324635522</v>
+        <v>11.3261261510413</v>
       </c>
       <c r="R5" t="n">
         <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.485714285714286</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6">
@@ -841,16 +838,16 @@
         <v>183562</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>6.76298318330126</v>
+        <v>13.7306180201222</v>
       </c>
       <c r="F7" t="n">
-        <v>3320</v>
+        <v>20545</v>
       </c>
       <c r="G7" t="n">
-        <v>490.907623162148</v>
+        <v>1496.29098776846</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -859,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1810</v>
+        <v>4669</v>
       </c>
       <c r="K7" t="n">
-        <v>148</v>
+        <v>7118</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>1824</v>
+        <v>12441</v>
       </c>
       <c r="O7" t="n">
-        <v>48.0936666666667</v>
+        <v>34.0945789473684</v>
       </c>
       <c r="P7" t="n">
-        <v>5.55378559391251</v>
+        <v>13.4399624520247</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.0624622869681</v>
+        <v>17.0960194669454</v>
       </c>
       <c r="R7" t="n">
         <v>30</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1009,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>528957</v>
@@ -1068,53 +1065,53 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>145.051567759004</v>
+        <v>41.6788474649284</v>
       </c>
       <c r="F11" t="n">
-        <v>3074</v>
+        <v>2958</v>
       </c>
       <c r="G11" t="n">
-        <v>21.1924631184084</v>
+        <v>70.9712523238335</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2445</v>
+        <v>2099</v>
       </c>
       <c r="K11" t="n">
-        <v>602</v>
+        <v>780</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O11" t="n">
-        <v>46.3363333333333</v>
+        <v>28.337</v>
       </c>
       <c r="P11" t="n">
-        <v>13.2781684322356</v>
+        <v>9.03941494492676</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.5423051839657</v>
+        <v>11.192393685832</v>
       </c>
       <c r="R11" t="n">
         <v>40</v>
@@ -1125,10 +1122,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
@@ -1182,10 +1179,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
       </c>
       <c r="C13" t="n">
         <v>2423361</v>
@@ -1241,10 +1238,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>26401</v>
@@ -1262,7 +1259,7 @@
         <v>38.7867402039951</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1300,10 +1297,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
